--- a/mocskos anyagiak.xlsx
+++ b/mocskos anyagiak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fazekasdo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fazekasdo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FBB44C-6EBA-4ED6-9525-DB9D0967F843}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E6ECE0-1D31-43DA-87EB-990C877883C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{3DBC160A-7B94-4E59-8B44-FB6477769B31}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>termék</t>
   </si>
@@ -48,19 +48,28 @@
     <t>össz ár</t>
   </si>
   <si>
-    <t>router</t>
-  </si>
-  <si>
-    <t>switch</t>
-  </si>
-  <si>
-    <t>server</t>
-  </si>
-  <si>
     <t>dell optiplex 3020 sff</t>
   </si>
   <si>
     <t>dahua lm22-b200s</t>
+  </si>
+  <si>
+    <t>cisco isr 4331</t>
+  </si>
+  <si>
+    <t>cisco ws-c2960x 24psq-l</t>
+  </si>
+  <si>
+    <t>cisco c9300-48ub-a</t>
+  </si>
+  <si>
+    <t>cisco cbw140ac</t>
+  </si>
+  <si>
+    <t>white shark cryus</t>
+  </si>
+  <si>
+    <t>white shark commandos tkl</t>
   </si>
 </sst>
 </file>
@@ -416,12 +425,12 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
@@ -459,7 +468,7 @@
       </c>
       <c r="I2">
         <f>SUM(D2:D30)</f>
-        <v>2113070</v>
+        <v>10077121</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -479,80 +488,128 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>61965</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D12" si="0">B4*C4</f>
-        <v>0</v>
+        <v>247860</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>366363</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>732726</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5544572</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5544572</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>28500</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>28500</v>
+        <v>199500</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>29900</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>29900</v>
+        <v>209300</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>41090</v>
+      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>945070</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>4999</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34993</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>15490</v>
+      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>108430</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/mocskos anyagiak.xlsx
+++ b/mocskos anyagiak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fazekasdo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E6ECE0-1D31-43DA-87EB-990C877883C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F77C98-3F20-414C-A64B-B086146E295C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{3DBC160A-7B94-4E59-8B44-FB6477769B31}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="I2">
         <f>SUM(D2:D30)</f>
-        <v>10077121</v>
+        <v>26880478</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -536,14 +536,14 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C7">
         <v>28500</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>199500</v>
+        <v>6270000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -551,14 +551,14 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C8">
         <v>29900</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>209300</v>
+        <v>6578000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -581,14 +581,14 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C10">
         <v>4999</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>34993</v>
+        <v>1099780</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -596,14 +596,14 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="C11">
         <v>15490</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>108430</v>
+        <v>3407800</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">

--- a/mocskos anyagiak.xlsx
+++ b/mocskos anyagiak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fazekasdo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somogyibb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F77C98-3F20-414C-A64B-B086146E295C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8CF381-C3FA-4A2A-8D6A-FB71C4C926F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{3DBC160A-7B94-4E59-8B44-FB6477769B31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{3DBC160A-7B94-4E59-8B44-FB6477769B31}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +85,38 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -102,12 +124,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -425,195 +497,257 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>318000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>B2*C2</f>
         <v>1908000</v>
       </c>
-      <c r="I2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2">
         <f>SUM(D2:D30)</f>
         <v>26880478</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>48890</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f>B3*C3</f>
         <v>146670</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>61965</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D12" si="0">B4*C4</f>
         <v>247860</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>366363</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>732726</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>5544572</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>5544572</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>220</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>28500</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>6270000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>220</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>29900</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>6578000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>41090</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>945070</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>220</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>4999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>1099780</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>220</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>15490</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>3407800</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
